--- a/biology/Médecine/Camille_Léopold_Simonin/Camille_Léopold_Simonin.xlsx
+++ b/biology/Médecine/Camille_Léopold_Simonin/Camille_Léopold_Simonin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camille_L%C3%A9opold_Simonin</t>
+          <t>Camille_Léopold_Simonin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camille Léopold Simonin, né le 28 mai 1891 à Rosières-aux-Salines (Meurthe-et-Moselle) et mort le 25 septembre 1961 à Brou (Eure-et-Loir), est professeur à la Faculté de médecine de l'université de Strasbourg. Il est directeur de l'Institut de médecine légale et de médecine sociale de l'université de Strasbourg en 1955.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camille_L%C3%A9opold_Simonin</t>
+          <t>Camille_Léopold_Simonin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Camille Léopold Simonin est né le 28 mai 1891 à Rosières-aux-Salines, (Meurthe-et-Moselle)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Camille Léopold Simonin est né le 28 mai 1891 à Rosières-aux-Salines, (Meurthe-et-Moselle),.
 Il est élève de l'École du service de santé militaire de Lyon.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camille_L%C3%A9opold_Simonin</t>
+          <t>Camille_Léopold_Simonin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il met au point une méthode de détermination du groupe sanguin dans le système ABO connue sous le nom d’« épreuve de Simonin », fonctionnant par agglutination d’hématies de groupes connus par le sérum inconnu.
 Il fonde en 1949, avec son chef de travaux Jean Fourcade (docteur en médecine et en pharmacie), la « Société de Médecine, d'Hygiène et de Sécurité du travail de Strasbourg ».
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Camille_L%C3%A9opold_Simonin</t>
+          <t>Camille_Léopold_Simonin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Recherches médico-légales sur l'intoxication alcoolique aiguë. Texte imprimé. Strasbourg: Éditions universitaires de Strasbourg, 1926.
 L'État d'ivresse, son importance judiciaire, son diagnostic médico-légal. Texte imprimé. Préface de Louis Hugueney. Paris: Librairie du Recueil Sirey, 1928.
